--- a/data/trans_camb/P3A_R1-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>11.2122003823086</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.804956062585097</v>
+        <v>4.804956062585103</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-6.103550532719431</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.135666129899806</v>
+        <v>1.964023372953969</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.8170709038245</v>
+        <v>3.777865237087336</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.285081763459171</v>
+        <v>-2.198107250644017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.22302022016206</v>
+        <v>-11.94109400205433</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.384247132616779</v>
+        <v>-7.555726463327744</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.344192083078213</v>
+        <v>3.923906676359576</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.354074443718011</v>
+        <v>-3.38861903871616</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.1199054245117916</v>
+        <v>0.272727017758818</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.454845995301044</v>
+        <v>2.164232823997795</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.0348218155338</v>
+        <v>16.63236112532999</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.62515330360397</v>
+        <v>18.59515308163568</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.50895153385406</v>
+        <v>11.70934706026496</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.7397130849586135</v>
+        <v>-0.2708038558831811</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.544281885870649</v>
+        <v>4.499367240514837</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.72084716415373</v>
+        <v>15.42809073707305</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.398902381529887</v>
+        <v>6.50387007063354</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.475154991687681</v>
+        <v>9.737077324157861</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.86459723415847</v>
+        <v>11.48688690737857</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5634928323405579</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2414832244034979</v>
+        <v>0.2414832244034982</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.409555869886128</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.09016649130046954</v>
+        <v>0.06752412491764288</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1658711789577159</v>
+        <v>0.1600234229411401</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1045286687394728</v>
+        <v>-0.09752692610654287</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.654476985128701</v>
+        <v>-0.6466529400587256</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4115793613278362</v>
+        <v>-0.4162947611345834</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1839187833466126</v>
+        <v>0.1866095582826766</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1719663786674386</v>
+        <v>-0.1780263998967804</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.004787899711692314</v>
+        <v>0.01140954607749078</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1163734877768517</v>
+        <v>0.1042151689113536</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.050470149156048</v>
+        <v>1.010381926153527</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.148863373382664</v>
+        <v>1.146793326953648</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6944365949989729</v>
+        <v>0.7675566290013219</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.04252298800789878</v>
+        <v>0.01220658639007341</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3749864469833264</v>
+        <v>0.3958201234417375</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.431913290868785</v>
+        <v>1.429867960605194</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4205930340466441</v>
+        <v>0.4189115000610382</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6394933378526985</v>
+        <v>0.6392733633387884</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7890472905366064</v>
+        <v>0.7808731639763129</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.672784291682871</v>
+        <v>-6.650767404584554</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.205399389513068</v>
+        <v>-2.408070860170541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10.09373553254988</v>
+        <v>9.215181634909012</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.207066145230931</v>
+        <v>-5.396277943287858</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.592902336649774</v>
+        <v>-2.770532268189805</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.00065276382628</v>
+        <v>12.70777244656409</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.554020444774401</v>
+        <v>-4.689450392307013</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.9899022268653481</v>
+        <v>-1.514203589208832</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>12.34902596977965</v>
+        <v>12.97711645493049</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.207448521165461</v>
+        <v>4.497107627149703</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.680589174436459</v>
+        <v>9.402331821561475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.4353669222285</v>
+        <v>23.39152724584397</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.653123381212765</v>
+        <v>3.630302632273944</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.93387606355757</v>
+        <v>6.000860215918104</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.31908203804374</v>
+        <v>21.5947283586947</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.660961682008618</v>
+        <v>2.251613798115904</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.169440000413428</v>
+        <v>6.338943705886956</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.92418167265864</v>
+        <v>20.66673925447162</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2408213868968641</v>
+        <v>-0.2373171790570905</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07542609311549883</v>
+        <v>-0.08104401138891895</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3527173756493355</v>
+        <v>0.3242546776085785</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3286711511440681</v>
+        <v>-0.3439515218392554</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1581580963388817</v>
+        <v>-0.1687706958908553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7149630258454595</v>
+        <v>0.7585053481499674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2154201389607971</v>
+        <v>-0.2164732713552501</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.04743845701596604</v>
+        <v>-0.06634930686934573</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5778031202918186</v>
+        <v>0.5878676303983549</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1860001863486736</v>
+        <v>0.212046033593301</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4235797737812248</v>
+        <v>0.4269557838053517</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.017912441612389</v>
+        <v>1.052262600178393</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3075806175302006</v>
+        <v>0.3275241960690772</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4832317507629373</v>
+        <v>0.5037251144330507</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.84864001327735</v>
+        <v>1.854703732515892</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1475729971191345</v>
+        <v>0.1291941965120102</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3443050609351059</v>
+        <v>0.3547994773577142</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.163497678076088</v>
+        <v>1.161680335458597</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2503047141242598</v>
+        <v>0.05746327461414605</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.04069175118513</v>
+        <v>14.99896391205869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.690267826629508</v>
+        <v>6.799926316406735</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.222369588549345</v>
+        <v>-1.956755381942006</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>9.636109024932447</v>
+        <v>9.278423952325545</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.20129796433318</v>
+        <v>16.72490538105292</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3758022578401932</v>
+        <v>0.8741814868452926</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>13.45700213783158</v>
+        <v>13.57303238633505</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.48226231769886</v>
+        <v>13.51124549665151</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.31013991732187</v>
+        <v>13.45425781348622</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>28.71021797143445</v>
+        <v>29.13364796302116</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.07836304933743</v>
+        <v>20.07017120716596</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.630551302576463</v>
+        <v>7.186027278322725</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>20.39766904222302</v>
+        <v>19.81376991277299</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.30758625864319</v>
+        <v>26.5439199911026</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.613299926012594</v>
+        <v>8.806872527185632</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>22.33795198705229</v>
+        <v>22.37566316078112</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.63014950032195</v>
+        <v>21.89995957354272</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.01041984007261218</v>
+        <v>0.003081318518468487</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.6589751977098788</v>
+        <v>0.6663783503563564</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3426361184920355</v>
+        <v>0.3006955123125424</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2332690290143632</v>
+        <v>-0.2214968416208042</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9499747863822047</v>
+        <v>0.8586598384226712</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.574561944474004</v>
+        <v>1.559639072073401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02671251058792065</v>
+        <v>0.04802342543390088</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.8206048681436112</v>
+        <v>0.8910767471354973</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8644955631772978</v>
+        <v>0.8617501358309304</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8506374665370273</v>
+        <v>0.8738422411377025</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.896880754561061</v>
+        <v>1.913221426562944</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.348351748863481</v>
+        <v>1.318347182541278</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.295166866831877</v>
+        <v>1.253048399758502</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.844523759817415</v>
+        <v>3.564600644853929</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.937195139961381</v>
+        <v>4.661678601919759</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7953003967199075</v>
+        <v>0.8056826495598712</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.910755057748674</v>
+        <v>2.002917565931078</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.943432581927155</v>
+        <v>1.960699039784986</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>11.29128085282861</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11.11131721889079</v>
+        <v>11.1113172188908</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-5.85090684611308</v>
@@ -1306,7 +1306,7 @@
         <v>2.677155536026044</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.113486743153309</v>
+        <v>5.113486743153306</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.810870750005332</v>
+        <v>3.081966875966118</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.747905370412053</v>
+        <v>5.176188956277626</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.428211698030827</v>
+        <v>3.579376001700164</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.22435257992977</v>
+        <v>-11.01243200250494</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.89831092508483</v>
+        <v>-10.98644519670808</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-5.891927603751252</v>
+        <v>-5.34490683414492</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.811680866392578</v>
+        <v>-2.562360510894244</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.805676811981706</v>
+        <v>-1.684714931575284</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6347932202821628</v>
+        <v>0.4142476166377886</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.34285967743177</v>
+        <v>16.28591121174588</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.75313028471976</v>
+        <v>18.03843515792618</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19.24120246019389</v>
+        <v>19.22124044751246</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.573781121738653</v>
+        <v>-0.6089246690416513</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5760509270510752</v>
+        <v>-0.3947813344259579</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.929055764364924</v>
+        <v>5.21363716735191</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.552866657991541</v>
+        <v>5.617748444652982</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.0874367724946</v>
+        <v>6.942036667407002</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.712136443269246</v>
+        <v>9.661924357205473</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.5496791540123238</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5409182118884602</v>
+        <v>0.5409182118884606</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3158653310564794</v>
@@ -1411,7 +1411,7 @@
         <v>0.1371746432091066</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2620097002611088</v>
+        <v>0.2620097002611087</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1011618899420133</v>
+        <v>0.1253013864159988</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1972802840470844</v>
+        <v>0.2167422603284963</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1428737291744188</v>
+        <v>0.1608920273798895</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5269123052463303</v>
+        <v>-0.5148428573351601</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5016724010428969</v>
+        <v>-0.5122589489850577</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2674009498807285</v>
+        <v>-0.2513449670278494</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1367086664356497</v>
+        <v>-0.117845044273458</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.08599330284320063</v>
+        <v>-0.08502075378693504</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.02467531299278377</v>
+        <v>0.02177788160159929</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9199465215284304</v>
+        <v>0.9362561533793979</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.048363726952974</v>
+        <v>1.030339145115931</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.09202660956609</v>
+        <v>1.106273493686552</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.02668418344016646</v>
+        <v>-0.02361586807373928</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04116472521784741</v>
+        <v>-0.02490531637163144</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3172161946953222</v>
+        <v>0.339414309981022</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.311024041710991</v>
+        <v>0.3178420505251561</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3913398690383494</v>
+        <v>0.3750424769120256</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5573135282952403</v>
+        <v>0.5674347485644161</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>15.56512469704091</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.750401657536114</v>
+        <v>2.750401657536103</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.353803457685698</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.149045847352109</v>
+        <v>-9.888344943132809</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.846213371394246</v>
+        <v>6.376178916682401</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.666952950380368</v>
+        <v>-5.907819599921189</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.124345045935476</v>
+        <v>-1.488457657591288</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.047580755622082</v>
+        <v>1.194180317829755</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>5.80946992960309</v>
+        <v>5.438912620208582</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.87245256643823</v>
+        <v>-4.239681367509946</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>5.18225369682807</v>
+        <v>5.986946174027551</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.790738605077442</v>
+        <v>2.535291431785235</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.753008798237024</v>
+        <v>6.053711204005201</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>23.10752546013457</v>
+        <v>23.69895831991748</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.524469613822038</v>
+        <v>10.01319293437709</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.9249276667698</v>
+        <v>11.79848086386786</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>14.80201867342819</v>
+        <v>15.1719715717902</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>17.02496520197756</v>
+        <v>17.44533500321249</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.528332650956541</v>
+        <v>6.167650146153359</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>16.8817001381782</v>
+        <v>17.15386667735861</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.06827754728577</v>
+        <v>11.91654445575083</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.7518607797026006</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1328559311268198</v>
+        <v>0.1328559311268192</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4077768505930223</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3940933103190901</v>
+        <v>-0.3937833504061353</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2215072320040642</v>
+        <v>0.2320107712683993</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2233888036190279</v>
+        <v>-0.2162649203160821</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1924388759854657</v>
+        <v>-0.1233733976920214</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02291509246333279</v>
+        <v>0.07147437701562109</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3494857250710248</v>
+        <v>0.3428603671584778</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2081420152652461</v>
+        <v>-0.2247004395973087</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2921585924436419</v>
+        <v>0.3122165820791913</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1575219689693489</v>
+        <v>0.1384138149059183</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3867447952476978</v>
+        <v>0.3751199880162559</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.424162895799323</v>
+        <v>1.371636138169397</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5649656090323176</v>
+        <v>0.6335664363227731</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.436934238682879</v>
+        <v>1.676852212594506</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.97662453904633</v>
+        <v>2.032903700479822</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.372737462121838</v>
+        <v>2.253404909373523</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5005260006007367</v>
+        <v>0.4504960532002039</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.299662342719785</v>
+        <v>1.3091005886915</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9483362758272398</v>
+        <v>0.9476433357722621</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>7.617105894100495</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>23.08262828866976</v>
+        <v>23.08262828866975</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>5.558939780180955</v>
@@ -1725,7 +1725,7 @@
         <v>-1.327829500301171</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>23.79759332264403</v>
+        <v>23.79759332264402</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>9.001236376594449</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>4.771145532642058</v>
+        <v>5.467400236099762</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.6397907677367245</v>
+        <v>0.235282519515421</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>15.73038715056748</v>
+        <v>15.7913467351897</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.195319186170781</v>
+        <v>-1.1142896427053</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.538597645607549</v>
+        <v>-7.326389338227243</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>17.91452082660795</v>
+        <v>18.0522859267333</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>4.232082570965304</v>
+        <v>4.1258594111235</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.803705253545892</v>
+        <v>-1.54036579756973</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>18.48701978701022</v>
+        <v>18.545275743291</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>19.75469577668492</v>
+        <v>20.46411992675086</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>14.9120451599372</v>
+        <v>14.25946913535659</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>29.75952108802355</v>
+        <v>30.24651613386352</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.7656638210334</v>
+        <v>11.71442900065561</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.94227351145856</v>
+        <v>3.929435324163798</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>30.00114721907434</v>
+        <v>29.76972049995571</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>14.44669442632076</v>
+        <v>13.51285780409372</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.711391750170857</v>
+        <v>7.629806747258752</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>28.05636078556789</v>
+        <v>27.68361507288842</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.4330100054442685</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>1.312179342115505</v>
+        <v>1.312179342115504</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.4298600116396827</v>
@@ -1830,7 +1830,7 @@
         <v>-0.1026779974285664</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.840213088679152</v>
+        <v>1.840213088679151</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5910045448276807</v>
@@ -1839,7 +1839,7 @@
         <v>0.1996540899328157</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1.54276290396742</v>
+        <v>1.542762903967419</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2318863841589019</v>
+        <v>0.249161844797424</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.02003326146598067</v>
+        <v>0.007995305126094466</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.7123373841104231</v>
+        <v>0.7137280557049497</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.07591058535725968</v>
+        <v>-0.09876132282700499</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4650929635028047</v>
+        <v>-0.448761469553305</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.058885439803142</v>
+        <v>0.9984850024004939</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2418619918252365</v>
+        <v>0.2299661392494833</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1069579554323223</v>
+        <v>-0.0862745904159717</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1.013291948994547</v>
+        <v>1.047578980249014</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.371012392171626</v>
+        <v>1.421329080553231</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.9877044969671619</v>
+        <v>0.9678784949104333</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.063326539465066</v>
+        <v>2.158634510353791</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.211922809824784</v>
+        <v>1.077238767508682</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.398465169600943</v>
+        <v>0.3834928379101848</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.02206447839466</v>
+        <v>2.981144271442028</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.120789630204302</v>
+        <v>1.028648589616751</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6005004796494106</v>
+        <v>0.5657321186782894</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.170710883201437</v>
+        <v>2.179992611416692</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>9.054242766206725</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>9.102612844058502</v>
+        <v>9.102612844058507</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.132189246190664</v>
+        <v>-1.235572585757202</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.647266442663626</v>
+        <v>0.7332810515230018</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.3468355404643699</v>
+        <v>0.6530153042171868</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.269983836252628</v>
+        <v>3.401912620688636</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>8.253927916455762</v>
+        <v>8.602609611916835</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>8.438701467703163</v>
+        <v>9.168616483890766</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.259455565887654</v>
+        <v>2.321236681519098</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>6.11505324440198</v>
+        <v>5.715630756237071</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>6.267708448897485</v>
+        <v>5.959141564040014</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.066184914829341</v>
+        <v>8.74326386842948</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.81111457823288</v>
+        <v>10.5606773378878</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10.92396009794784</v>
+        <v>11.1046661866047</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.03894117255288</v>
+        <v>11.40517733821657</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>16.09331014336788</v>
+        <v>16.59253639211045</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>16.14771585624233</v>
+        <v>16.25552832275957</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.943317311488293</v>
+        <v>8.929488939877348</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>12.52434851036243</v>
+        <v>12.3680939163967</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>12.03073660734817</v>
+        <v>12.1167055772357</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.5341552422666563</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.5370088360260159</v>
+        <v>0.5370088360260162</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.04737226926196295</v>
+        <v>-0.04757138226197247</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.01944859533106562</v>
+        <v>0.02746272129053183</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.01162853627563092</v>
+        <v>0.01892091186629954</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2603021899400164</v>
+        <v>0.2773593798777739</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.6681252207698414</v>
+        <v>0.7049122503539271</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6512041305218361</v>
+        <v>0.7120195369764736</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1245717855590972</v>
+        <v>0.1243529572180353</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.325088929171947</v>
+        <v>0.2946885897320378</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.3383377926327202</v>
+        <v>0.3240476719088162</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4166974483521685</v>
+        <v>0.4198022615943099</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5218276779265594</v>
+        <v>0.5120928962596403</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5161691834466566</v>
+        <v>0.5370344918360643</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.245556953634219</v>
+        <v>1.286481175857065</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.814765660349536</v>
+        <v>1.928947923935096</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.882074845214078</v>
+        <v>1.880464548701304</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5706388668810151</v>
+        <v>0.5842313336555958</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.8060504737693137</v>
+        <v>0.7987540233142217</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.7781781812341686</v>
+        <v>0.7971534257317908</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>7.031777735289448</v>
+        <v>6.887044699508269</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>13.05965716034589</v>
+        <v>12.80216683481561</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-5.487652654746878</v>
+        <v>-5.528146215224753</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4.218288033967831</v>
+        <v>4.23850714526485</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>8.743574197873375</v>
+        <v>8.355880493934684</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-6.985623263796409</v>
+        <v>-6.880385073936628</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>6.568988161475319</v>
+        <v>6.691850162497643</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>11.80785232263977</v>
+        <v>11.86607249592767</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-5.292739958247379</v>
+        <v>-5.287365874323855</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>15.82262390321102</v>
+        <v>16.03476375432934</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>21.74788647731293</v>
+        <v>22.16567842246215</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.609303925749856</v>
+        <v>2.368813277423965</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11.33171322244052</v>
+        <v>11.30903098977844</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>15.90478616403573</v>
+        <v>15.86464270827166</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-2.126734357186607</v>
+        <v>-1.923835760687656</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>12.47003817322811</v>
+        <v>12.09440046965176</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>17.66074111825525</v>
+        <v>17.35176526760844</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.5372841689656657</v>
+        <v>-0.6705992389489447</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.3451128138101465</v>
+        <v>0.3267962931800656</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.6300551705184145</v>
+        <v>0.6076722310441964</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2670824302726168</v>
+        <v>-0.2608892390326254</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.367174770735659</v>
+        <v>0.368401862414398</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.7889573454752628</v>
+        <v>0.7269337446960229</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.624658643914326</v>
+        <v>-0.6165494369671413</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4248720390971524</v>
+        <v>0.4441187001746744</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.7686523281639445</v>
+        <v>0.7887318122038325</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3503041338759205</v>
+        <v>-0.3501258592286277</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.9823845216825277</v>
+        <v>0.9621581950911151</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.328321135597019</v>
+        <v>1.360325550439941</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1624264308378298</v>
+        <v>0.1535264888711945</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.379997854849344</v>
+        <v>1.430021808481806</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>2.009653833836246</v>
+        <v>1.94972643071568</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2616146396327116</v>
+        <v>-0.2396969420023182</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.9755870196711492</v>
+        <v>0.948197780454432</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.415611960922933</v>
+        <v>1.382014164198801</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.04173539800341896</v>
+        <v>-0.05228443937226563</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>6.57486587431351</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>9.344343920352676</v>
+        <v>9.34434392035268</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>4.652877614354795</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>4.345606584845633</v>
+        <v>4.430603803607778</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>9.351319506768331</v>
+        <v>9.290697623189107</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>5.896987829425353</v>
+        <v>5.912927251355129</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.155754844246011</v>
+        <v>1.312614750888549</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>4.747836298838815</v>
+        <v>4.912017641301444</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>7.682361502169869</v>
+        <v>7.779522122229042</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>3.35684853086908</v>
+        <v>3.329906638056579</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>7.624156837729341</v>
+        <v>7.590639426495269</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>7.292887239352212</v>
+        <v>7.285107175674232</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>8.551949746235564</v>
+        <v>8.619073109210678</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>13.53921866357433</v>
+        <v>13.64845781987172</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>10.51272103067653</v>
+        <v>10.36426162084101</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.583492877501705</v>
+        <v>4.558673144304339</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>8.172832423782115</v>
+        <v>8.237859685074946</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>10.91057025640942</v>
+        <v>11.12180339714087</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>6.099752680109209</v>
+        <v>6.004122733911855</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>10.32695755233871</v>
+        <v>10.31383063391504</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>10.04329759594777</v>
+        <v>9.971740162218314</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.5483240944692744</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.7792902572437382</v>
+        <v>0.7792902572437385</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.2839697351687807</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1947027215637182</v>
+        <v>0.2025182346329068</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.4231068733792345</v>
+        <v>0.4187921392521454</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.2666195347563035</v>
+        <v>0.2660808811985657</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.09329070164759476</v>
+        <v>0.1019475082722904</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.3708929846707137</v>
+        <v>0.3924385135429804</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5898934590335166</v>
+        <v>0.6082073734926763</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.197651654993579</v>
+        <v>0.1980609055210149</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.4448013154735833</v>
+        <v>0.445677933572215</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.4284155451188887</v>
+        <v>0.431134646889489</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4288655144001426</v>
+        <v>0.4327124379204356</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.6786303181086646</v>
+        <v>0.6842512766869315</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.524176789114589</v>
+        <v>0.5210330019095789</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.4107302972989295</v>
+        <v>0.401955767072918</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.7240550225587368</v>
+        <v>0.7499122061951768</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.9715346802961543</v>
+        <v>1.000686774725839</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.3888584340946031</v>
+        <v>0.3798606619172834</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.654686044863345</v>
+        <v>0.6586052536996119</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.6431731133514569</v>
+        <v>0.6377558949511388</v>
       </c>
     </row>
     <row r="58">
